--- a/va_facility_data_2025-02-20/Silverdale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Silverdale%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Silverdale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Silverdale%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb688daa2509346389b5bbf01d353aad1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R59e11b4385b74754b57a5c7bc51fcff1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc892972d6a4c4150b5e5d31a460d81f6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2b5cb8457f2a4777a4a990e04082f44c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc45fadc941ff4ddca7d9d3dd3e717b4e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4bd9efda14b3469aa0d9267696041e95"/>
   </x:sheets>
 </x:workbook>
 </file>
